--- a/Traceability Matrix.xlsx
+++ b/Traceability Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOUDAYOGA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Brigade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -437,10 +437,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,7 +759,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L29" sqref="L29"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -770,7 +770,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -945,9 +945,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -987,7 +985,9 @@
         <v>37</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>48</v>
       </c>
@@ -1683,11 +1683,11 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="14" t="s">
+      <c r="Y22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>

--- a/Traceability Matrix.xlsx
+++ b/Traceability Matrix.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Brigade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SelfStart\Brigade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19284" windowHeight="6828" xr2:uid="{4A6CE18A-5CB9-49AB-968E-E2E5D15B5A4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19280" windowHeight="6830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -754,22 +754,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CC2FEB-5F91-48E6-9763-739F75BFE839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.3671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5234375" customWidth="1"/>
-    <col min="32" max="32" width="10.1015625" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="32" max="32" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>31</v>
       </c>
@@ -940,7 +940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1356,7 +1356,9 @@
       <c r="M14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1376,7 +1378,7 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1392,9 +1394,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
         <v>48</v>
@@ -1416,7 +1416,7 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>

--- a/Traceability Matrix.xlsx
+++ b/Traceability Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musda\Desktop\Year 3\3352\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SelfStart\Brigade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -759,7 +759,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1356,7 +1356,9 @@
       <c r="M14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1392,9 +1394,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
         <v>48</v>
